--- a/experiments/capital/bert-base-uncased_15/incorrect_predictions_99.xlsx
+++ b/experiments/capital/bert-base-uncased_15/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft is returning to the Home Point . RTH Altitude is nnn . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,46 +512,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aircraft is tilted</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>36-39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Downlink data connection lost for nnn seconds .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,46 +562,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Downlink data connection lost for nnn seconds .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Downlink data connection lost for nnn</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Exiting GPS mode</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,71 +637,71 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Exiting GPS mode : Unknown Error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Calibrate Compass Before Takeoff</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>36-39</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,46 +712,46 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Exiting GPS mode : Unknown Error .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,96 +762,96 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Landin .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws</t>
+          <t>Landin</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5-12</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,199 +862,99 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Take off and retry this function .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>Take off and retry this function</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Take off and retry this function .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Take off and retry</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
+          <t>Warnin .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Warnin</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>122</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4-12</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>142</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Data Recorder File Index is 1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>146</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SD card speed low . Change card .</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Change card</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5-6</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>159</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Cannot Takeoff</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3-4</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
